--- a/RNN_python/output_data_test/anom_data10.xlsx
+++ b/RNN_python/output_data_test/anom_data10.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43131</v>
+        <v>43083</v>
       </c>
       <c r="D2" t="n">
-        <v>1.741122096265599</v>
+        <v>3.499690924765815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43131.04166666666</v>
+        <v>43083.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.121875356338961</v>
+        <v>-3.928576177762466</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43131.08333333334</v>
+        <v>43083.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.826687515375824</v>
+        <v>-2.635696921492723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43131.125</v>
+        <v>43083.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.244165067386007</v>
+        <v>3.218471323559442</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43131.16666666666</v>
+        <v>43083.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.663940131088111</v>
+        <v>14.99546816808633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43131.20833333334</v>
+        <v>43083.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4105721976232104</v>
+        <v>31.9364654027554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43131.25</v>
+        <v>43083.25</v>
       </c>
       <c r="D8" t="n">
-        <v>8.629550957453787</v>
+        <v>72.66795510806071</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43131.29166666666</v>
+        <v>43083.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>46.20938128568893</v>
+        <v>125.0101812277733</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43131.33333333334</v>
+        <v>43083.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>283.0642258068973</v>
+        <v>226.9981140001441</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43131.375</v>
+        <v>43083.375</v>
       </c>
       <c r="D11" t="n">
-        <v>425.3988982716438</v>
+        <v>371.6830316147725</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43131.41666666666</v>
+        <v>43083.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>438.5922778546612</v>
+        <v>386.4752458032271</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43131.45833333334</v>
+        <v>43083.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>366.1172291677083</v>
+        <v>383.5044154067832</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43131.5</v>
+        <v>43083.5</v>
       </c>
       <c r="D14" t="n">
-        <v>304.7077758722858</v>
+        <v>345.7203399302616</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43131.54166666666</v>
+        <v>43083.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>268.5191553000512</v>
+        <v>309.190775484618</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43131.58333333334</v>
+        <v>43083.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>223.2466122053813</v>
+        <v>263.9640222621179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43131.625</v>
+        <v>43083.625</v>
       </c>
       <c r="D17" t="n">
-        <v>176.9148918722391</v>
+        <v>219.8132306641403</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43131.66666666666</v>
+        <v>43083.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>136.9488445181774</v>
+        <v>179.1450368000884</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43131.70833333334</v>
+        <v>43083.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>104.4664711588786</v>
+        <v>143.6872143314137</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43131.75</v>
+        <v>43083.75</v>
       </c>
       <c r="D20" t="n">
-        <v>78.73568609999055</v>
+        <v>113.3989913789055</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43131.79166666666</v>
+        <v>43083.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>58.64678522091523</v>
+        <v>89.33285813005173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43131.83333333334</v>
+        <v>43083.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>43.13362869718144</v>
+        <v>72.05328296287296</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43131.875</v>
+        <v>43083.875</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35635403296497</v>
+        <v>61.41305759021439</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43131.91666666666</v>
+        <v>43083.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>22.69720746458374</v>
+        <v>56.30905943778188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43131.95833333334</v>
+        <v>43083.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>16.62845631614353</v>
+        <v>54.69387174815132</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43131</v>
+        <v>43083</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43131.04166666666</v>
+        <v>43083.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43131.08333333334</v>
+        <v>43083.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43131.125</v>
+        <v>43083.125</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43131.16666666666</v>
+        <v>43083.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43131.20833333334</v>
+        <v>43083.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43131.25</v>
+        <v>43083.25</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43131.29166666666</v>
+        <v>43083.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43131.33333333334</v>
+        <v>43083.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43131.375</v>
+        <v>43083.375</v>
       </c>
       <c r="D11" t="n">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43131.41666666666</v>
+        <v>43083.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>478</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43131.45833333334</v>
+        <v>43083.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43131.5</v>
+        <v>43083.5</v>
       </c>
       <c r="D14" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43131.54166666666</v>
+        <v>43083.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>213</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43131.58333333334</v>
+        <v>43083.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>171</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43131.625</v>
+        <v>43083.625</v>
       </c>
       <c r="D17" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43131.66666666666</v>
+        <v>43083.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43131.70833333334</v>
+        <v>43083.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43131.75</v>
+        <v>43083.75</v>
       </c>
       <c r="D20" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43131.79166666666</v>
+        <v>43083.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43131.83333333334</v>
+        <v>43083.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43131.875</v>
+        <v>43083.875</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43131.91666666666</v>
+        <v>43083.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43131.95833333334</v>
+        <v>43083.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data10.xlsx
+++ b/RNN_python/output_data_test/anom_data10.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43083</v>
+        <v>43138</v>
       </c>
       <c r="D2" t="n">
-        <v>3.499690924765815</v>
+        <v>59.50162388889047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43083.04166666666</v>
+        <v>43138.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.928576177762466</v>
+        <v>57.92615086730702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43083.08333333334</v>
+        <v>43138.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.635696921492723</v>
+        <v>47.22194184186537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43083.125</v>
+        <v>43138.125</v>
       </c>
       <c r="D5" t="n">
-        <v>3.218471323559442</v>
+        <v>54.70958271351211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43083.16666666666</v>
+        <v>43138.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>14.99546816808633</v>
+        <v>71.62480777397749</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43083.20833333334</v>
+        <v>43138.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>31.9364654027554</v>
+        <v>101.3916806213903</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43083.25</v>
+        <v>43138.25</v>
       </c>
       <c r="D8" t="n">
-        <v>72.66795510806071</v>
+        <v>132.1957467955015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43083.29166666666</v>
+        <v>43138.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>125.0101812277733</v>
+        <v>158.6405315420045</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43083.33333333334</v>
+        <v>43138.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>226.9981140001441</v>
+        <v>171.3959029173399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43083.375</v>
+        <v>43138.375</v>
       </c>
       <c r="D11" t="n">
-        <v>371.6830316147725</v>
+        <v>173.6467408881567</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43083.41666666666</v>
+        <v>43138.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>386.4752458032271</v>
+        <v>173.6133895849506</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43083.45833333334</v>
+        <v>43138.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>383.5044154067832</v>
+        <v>173.1104082043025</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43083.5</v>
+        <v>43138.5</v>
       </c>
       <c r="D14" t="n">
-        <v>345.7203399302616</v>
+        <v>172.5024195823821</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43083.54166666666</v>
+        <v>43138.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>309.190775484618</v>
+        <v>171.8806175633773</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43083.58333333334</v>
+        <v>43138.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>263.9640222621179</v>
+        <v>171.3071200617844</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43083.625</v>
+        <v>43138.625</v>
       </c>
       <c r="D17" t="n">
-        <v>219.8132306641403</v>
+        <v>170.8031344556427</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43083.66666666666</v>
+        <v>43138.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>179.1450368000884</v>
+        <v>170.3711268176832</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43083.70833333334</v>
+        <v>43138.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>143.6872143314137</v>
+        <v>170.0040040108755</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43083.75</v>
+        <v>43138.75</v>
       </c>
       <c r="D20" t="n">
-        <v>113.3989913789055</v>
+        <v>169.6907619271739</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43083.79166666666</v>
+        <v>43138.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>89.33285813005173</v>
+        <v>169.418515124697</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43083.83333333334</v>
+        <v>43138.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>72.05328296287296</v>
+        <v>169.1741959603133</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43083.875</v>
+        <v>43138.875</v>
       </c>
       <c r="D23" t="n">
-        <v>61.41305759021439</v>
+        <v>168.9452452594956</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43083.91666666666</v>
+        <v>43138.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>56.30905943778188</v>
+        <v>168.720675863152</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43083.95833333334</v>
+        <v>43138.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>54.69387174815132</v>
+        <v>60.34326230898024</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43083</v>
+        <v>43138</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43083.04166666666</v>
+        <v>43138.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43083.08333333334</v>
+        <v>43138.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43083.125</v>
+        <v>43138.125</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43083.16666666666</v>
+        <v>43138.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43083.20833333334</v>
+        <v>43138.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43083.25</v>
+        <v>43138.25</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43083.29166666666</v>
+        <v>43138.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43083.33333333334</v>
+        <v>43138.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43083.375</v>
+        <v>43138.375</v>
       </c>
       <c r="D11" t="n">
-        <v>392</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43083.41666666666</v>
+        <v>43138.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>450</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43083.45833333334</v>
+        <v>43138.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>292</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43083.5</v>
+        <v>43138.5</v>
       </c>
       <c r="D14" t="n">
-        <v>303</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43083.54166666666</v>
+        <v>43138.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43083.58333333334</v>
+        <v>43138.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43083.625</v>
+        <v>43138.625</v>
       </c>
       <c r="D17" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43083.66666666666</v>
+        <v>43138.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43083.70833333334</v>
+        <v>43138.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43083.75</v>
+        <v>43138.75</v>
       </c>
       <c r="D20" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43083.79166666666</v>
+        <v>43138.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43083.83333333334</v>
+        <v>43138.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43083.875</v>
+        <v>43138.875</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43083.91666666666</v>
+        <v>43138.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43083.95833333334</v>
+        <v>43138.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
